--- a/inst/extdata/MassWateR_WQXMeta_Template.xlsx
+++ b/inst/extdata/MassWateR_WQXMeta_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Templates for users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613D02C3-8A4C-4EE7-93B9-C428353597AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1C1DFA-4C99-40FD-B665-3D260878C58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>Available Values</t>
   </si>
   <si>
-    <t>Name of the measured parameter.</t>
-  </si>
-  <si>
     <t>see parameter list</t>
   </si>
   <si>
@@ -143,6 +140,10 @@
   </si>
   <si>
     <t>Enter the Context for the Analytical Method ID.  Source of method.  Not applicable for field measurements/observations.</t>
+  </si>
+  <si>
+    <t>Name of the measured parameter.
+- Note that this can be either the WQX or Simple parameter name.  However, if a parameter is distinguished by Sample Fraction only (i.e. TDP, PON, TDN), then the Simple parameter name must be used here and in all other files (Results, DQO, etc.)</t>
   </si>
 </sst>
 </file>
@@ -245,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -270,20 +271,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,34 +607,33 @@
       <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="15" customWidth="1"/>
-    <col min="2" max="6" width="13.140625" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="6" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -654,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -674,64 +673,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="B5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -748,33 +747,33 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="96.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="96.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -788,91 +787,91 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="9"/>
     </row>
   </sheetData>

--- a/inst/extdata/MassWateR_WQXMeta_Template.xlsx
+++ b/inst/extdata/MassWateR_WQXMeta_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Templates for users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1C1DFA-4C99-40FD-B665-3D260878C58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D2372A-8BC9-4CEF-8526-8E8053672974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Parameter</t>
   </si>
@@ -143,7 +143,14 @@
   </si>
   <si>
     <t>Name of the measured parameter.
-- Note that this can be either the WQX or Simple parameter name.  However, if a parameter is distinguished by Sample Fraction only (i.e. TDP, PON, TDN), then the Simple parameter name must be used here and in all other files (Results, DQO, etc.)</t>
+- Note that this can be either the WQX or Simple parameter name.  However, if a parameter is distinguished by Sample Fraction only (i.e. TDP, TDN), then the Simple parameter name must be used here and in all other files (Results, DQO, etc.)</t>
+  </si>
+  <si>
+    <t>standard list in WQX
+Recommended:  Filtered, lab; Filtered, field; Unfiltered; Non-Filterable (Particle)</t>
+  </si>
+  <si>
+    <t>MassBays</t>
   </si>
 </sst>
 </file>
@@ -246,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -272,17 +279,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,136 +615,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973C1027-43ED-409D-9786-38F45BEFD8D3}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="6" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
+    <col min="2" max="6" width="13.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="B6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -743,37 +758,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83CEA30-4E88-458A-AFF2-D4098CA8390C}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="2" width="96.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="96.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -787,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -801,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -815,7 +830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -829,7 +844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -839,11 +854,11 @@
       <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D9" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -857,7 +872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -871,7 +886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
     </row>
   </sheetData>

--- a/inst/extdata/MassWateR_WQXMeta_Template.xlsx
+++ b/inst/extdata/MassWateR_WQXMeta_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Templates for users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D2372A-8BC9-4CEF-8526-8E8053672974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA038AA4-2DBE-44C9-B819-E783649C4F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>The Meta tab must be the first tab in this workbook.</t>
   </si>
   <si>
-    <t>Enter the Context for the Sampling Method IDs that are used for sampling this parameter.  Not applicable for field measurements/observations.</t>
-  </si>
-  <si>
     <t>Enter the Result Sample Fraction for this parameter.  Text name of fraction of sample associated with result, required for certain characteristics.  Not applicable for field measurements/observations.</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>MassBays</t>
+  </si>
+  <si>
+    <t>Enter the Context for the Sampling Method IDs that are used for sampling this parameter.  Not applicable for field measurements/observations.  If you are using the standard methods defined by MassWateR, enter the context "MassWateR".</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>24</v>
@@ -713,7 +713,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>24</v>
@@ -733,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>4</v>
@@ -762,7 +762,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>5</v>
@@ -816,12 +816,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -835,7 +835,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
@@ -849,13 +849,13 @@
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>15</v>
@@ -877,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>16</v>

--- a/inst/extdata/MassWateR_WQXMeta_Template.xlsx
+++ b/inst/extdata/MassWateR_WQXMeta_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Templates for users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA038AA4-2DBE-44C9-B819-E783649C4F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE0719B-9CAE-4E5D-B009-96EFAD129DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
   </bookViews>
@@ -284,20 +284,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,17 +619,17 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="14" customWidth="1"/>
     <col min="2" max="6" width="13.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -652,19 +652,19 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="B2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -672,19 +672,19 @@
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="B3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -692,19 +692,19 @@
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -712,19 +712,19 @@
       <c r="A5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -732,19 +732,19 @@
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -854,7 +854,7 @@
       <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
     </row>

--- a/inst/extdata/MassWateR_WQXMeta_Template.xlsx
+++ b/inst/extdata/MassWateR_WQXMeta_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Templates for users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE0719B-9CAE-4E5D-B009-96EFAD129DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9491CFC9-0B7B-4FEF-B9CF-C7D05667AFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Parameter</t>
   </si>
@@ -145,9 +145,6 @@
   <si>
     <t>standard list in WQX
 Recommended:  Filtered, lab; Filtered, field; Unfiltered; Non-Filterable (Particle)</t>
-  </si>
-  <si>
-    <t>MassBays</t>
   </si>
   <si>
     <t>Enter the Context for the Sampling Method IDs that are used for sampling this parameter.  Not applicable for field measurements/observations.  If you are using the standard methods defined by MassWateR, enter the context "MassWateR".</t>
@@ -253,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -292,12 +289,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,7 +610,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,102 +640,102 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -762,7 +753,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
